--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/198.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/198.xlsx
@@ -479,13 +479,13 @@
         <v>-15.46462005568967</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.64281388880794</v>
+        <v>-14.68853221033124</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1150055020008139</v>
+        <v>-0.07673670079444857</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.10070444728179</v>
+        <v>-11.16167530161571</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.17897851912585</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.80235669123721</v>
+        <v>-14.84358435288581</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05226718678326255</v>
+        <v>-0.008800741348731997</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.81190133889616</v>
+        <v>-10.86878739474346</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.80464378534765</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.15926595900551</v>
+        <v>-15.20439512690093</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01055510992952329</v>
+        <v>0.02942878294910812</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.44090475327016</v>
+        <v>-10.50280516110585</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.3570266888273</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.66371238749721</v>
+        <v>-15.71327984605599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1100773684541407</v>
+        <v>0.1559266130058654</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.25131511581913</v>
+        <v>-10.31587326113168</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.8197512952544</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.14440937863402</v>
+        <v>-16.19743320514301</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1040287245412633</v>
+        <v>0.1477046468212614</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.08946806808971</v>
+        <v>-10.1567363200905</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.18975440800392</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.70529672467641</v>
+        <v>-16.7666341634899</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2231686804009705</v>
+        <v>0.2801201977624789</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.942493876388495</v>
+        <v>-10.00921225166993</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.45788930658868</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.282876756842</v>
+        <v>-17.35127094688718</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3800144684448488</v>
+        <v>0.4310744495275804</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.737389860070014</v>
+        <v>-9.803833296991773</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.62703002480634</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.9990519068901</v>
+        <v>-18.07653215510743</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6497159069844057</v>
+        <v>0.7074529625164178</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.7727783546512</v>
+        <v>-9.840373914223031</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.70774645425524</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.47550699190619</v>
+        <v>-18.55826343816874</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7002391036506267</v>
+        <v>0.7508277618310563</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.429930220134919</v>
+        <v>-9.494737119201462</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.712161507168245</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.0718875709525</v>
+        <v>-19.16108543021318</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8257942879027796</v>
+        <v>0.876343669174684</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.379603408011324</v>
+        <v>-9.446976398434845</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.660074488196784</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.61614769238589</v>
+        <v>-19.70755815082682</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9762117552513705</v>
+        <v>1.033385841761188</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.887057882802747</v>
+        <v>-8.955321149819508</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.572843774561235</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.42352382402946</v>
+        <v>-20.51937257313373</v>
       </c>
       <c r="F13" t="n">
-        <v>1.155903611754061</v>
+        <v>1.217267235173231</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.38494188421687</v>
+        <v>-8.461741332686435</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.494808203605243</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.2547410391478</v>
+        <v>-21.35117894187996</v>
       </c>
       <c r="F14" t="n">
-        <v>1.468220496043436</v>
+        <v>1.53658850148293</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.916080334848975</v>
+        <v>-8.00335362559192</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.459931900497186</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.07532730435867</v>
+        <v>-22.1741741908137</v>
       </c>
       <c r="F15" t="n">
-        <v>1.577829255434367</v>
+        <v>1.648972829076306</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.464461348323634</v>
+        <v>-7.560925435661472</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.503076829280054</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.93593673935669</v>
+        <v>-23.03209970372917</v>
       </c>
       <c r="F16" t="n">
-        <v>1.852715245899247</v>
+        <v>1.926712941560683</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.894278467263622</v>
+        <v>-6.983790541792503</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.651494398306206</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.55181175733432</v>
+        <v>-23.64569666101234</v>
       </c>
       <c r="F17" t="n">
-        <v>2.041846652750822</v>
+        <v>2.116970286456646</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.804124869895497</v>
+        <v>-6.896674358683658</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.935499389579204</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.36083751913594</v>
+        <v>-24.45744562180504</v>
       </c>
       <c r="F18" t="n">
-        <v>2.448074625323899</v>
+        <v>2.531289302185909</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.403382572213103</v>
+        <v>-6.495683307247273</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.373574764901979</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.20572309842105</v>
+        <v>-25.30675639945066</v>
       </c>
       <c r="F19" t="n">
-        <v>2.711779789161945</v>
+        <v>2.796198957885395</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.105558867169519</v>
+        <v>-6.193526049963077</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.973058779732044</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.95870071175725</v>
+        <v>-26.0598780281181</v>
       </c>
       <c r="F20" t="n">
-        <v>2.933851429963303</v>
+        <v>3.018061121841284</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.979781113769056</v>
+        <v>-6.078470892589988</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.733873020029705</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.54222464941298</v>
+        <v>-26.64380782716193</v>
       </c>
       <c r="F21" t="n">
-        <v>3.255450756967462</v>
+        <v>3.336439742346379</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.657514079319969</v>
+        <v>-5.749644614417195</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.649400471415989</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.12756841716371</v>
+        <v>-27.23000259459737</v>
       </c>
       <c r="F22" t="n">
-        <v>3.470504923445654</v>
+        <v>3.544293142261622</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.496452569761055</v>
+        <v>-5.600811315712454</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.712420594243087</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.5804573570647</v>
+        <v>-27.67826995159523</v>
       </c>
       <c r="F23" t="n">
-        <v>3.654608886006006</v>
+        <v>3.727218797566219</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.302516287766567</v>
+        <v>-5.402894973654081</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.903163005549334</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.80842053414483</v>
+        <v>-27.9074376205368</v>
       </c>
       <c r="F24" t="n">
-        <v>3.789511974487151</v>
+        <v>3.862907424217868</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.138338810131322</v>
+        <v>-5.240170741634268</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.204063605653553</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.07967995672255</v>
+        <v>-28.17550252122114</v>
       </c>
       <c r="F25" t="n">
-        <v>4.103858165716995</v>
+        <v>4.177986784406848</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.849064378843384</v>
+        <v>-4.947518496213164</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.592227496980028</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.04042923280306</v>
+        <v>-28.13557099755388</v>
       </c>
       <c r="F26" t="n">
-        <v>4.255807432498067</v>
+        <v>4.336927340905402</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.848239563764356</v>
+        <v>-4.950451172049712</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.047824332835556</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.93643707133123</v>
+        <v>-28.0283319449773</v>
       </c>
       <c r="F27" t="n">
-        <v>4.214985632237565</v>
+        <v>4.29110428095936</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.677345734771306</v>
+        <v>-4.768612177880978</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.543014304060814</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.8814232147903</v>
+        <v>-27.97632931808997</v>
       </c>
       <c r="F28" t="n">
-        <v>4.203595328765264</v>
+        <v>4.272487026318426</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.601960255008647</v>
+        <v>-4.686117577675262</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.056183309962231</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.67552056799847</v>
+        <v>-27.76450895041368</v>
       </c>
       <c r="F29" t="n">
-        <v>4.194325978353321</v>
+        <v>4.261280015085909</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.487310959023652</v>
+        <v>-4.567553683140591</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.566592642660891</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.53310249768617</v>
+        <v>-27.61951169644156</v>
       </c>
       <c r="F30" t="n">
-        <v>4.104774626915916</v>
+        <v>4.165732388946992</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.44156645289466</v>
+        <v>-4.52128548489793</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.056127426819797</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.09293927614734</v>
+        <v>-27.17587901464968</v>
       </c>
       <c r="F31" t="n">
-        <v>3.96395381755031</v>
+        <v>4.021533765448221</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.543437661306132</v>
+        <v>-4.614856173307747</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.507127747119252</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.72158919834462</v>
+        <v>-26.8007452613257</v>
       </c>
       <c r="F32" t="n">
-        <v>3.882231663212255</v>
+        <v>3.936538535399735</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.624636123530516</v>
+        <v>-4.695216728150261</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.90467901992984</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.3019808922673</v>
+        <v>-26.38108458603701</v>
       </c>
       <c r="F33" t="n">
-        <v>3.750418358201757</v>
+        <v>3.803625476950532</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.585005722828612</v>
+        <v>-4.637361841892674</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.241137815226841</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.81897965583034</v>
+        <v>-25.89547798133455</v>
       </c>
       <c r="F34" t="n">
-        <v>3.626355696473561</v>
+        <v>3.675399462918667</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.41645541604423</v>
+        <v>-4.460366999775379</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.510067450040898</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.41783149675986</v>
+        <v>-25.48993080850924</v>
       </c>
       <c r="F35" t="n">
-        <v>3.385431139580118</v>
+        <v>3.43573176709803</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.433030271441855</v>
+        <v>-4.469099565770811</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.710420430215459</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.72820753687478</v>
+        <v>-24.80076507922362</v>
       </c>
       <c r="F36" t="n">
-        <v>3.179227369822932</v>
+        <v>3.22130603115624</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.707811523484002</v>
+        <v>-4.739926942354757</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.839990213886975</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.25501243526627</v>
+        <v>-24.32345899452282</v>
       </c>
       <c r="F37" t="n">
-        <v>3.045973911499845</v>
+        <v>3.090147341287828</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.711320260645585</v>
+        <v>-4.736352743678965</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.907160027147312</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.84466038729805</v>
+        <v>-23.9096243939987</v>
       </c>
       <c r="F38" t="n">
-        <v>2.974856522463589</v>
+        <v>3.0177207219674</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.851015131966802</v>
+        <v>-4.879202859985038</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.920067660396903</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.34770275603181</v>
+        <v>-23.4107029173062</v>
       </c>
       <c r="F39" t="n">
-        <v>2.945294102646971</v>
+        <v>2.989153317166753</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.729348361658642</v>
+        <v>-4.752272983934504</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.891727157874073</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.96738445078251</v>
+        <v>-23.02836839741927</v>
       </c>
       <c r="F40" t="n">
-        <v>3.022564874018838</v>
+        <v>3.075431592893728</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.723378271562814</v>
+        <v>-4.740568465194</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.832747138259896</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.43873035433646</v>
+        <v>-22.49844434759757</v>
       </c>
       <c r="F41" t="n">
-        <v>3.047387880206751</v>
+        <v>3.094572539648332</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.651776467321414</v>
+        <v>-4.668691722592925</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.755720844748414</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.76945183306742</v>
+        <v>-21.82421693585436</v>
       </c>
       <c r="F42" t="n">
-        <v>3.146103843633365</v>
+        <v>3.190722411717968</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.67730645786278</v>
+        <v>-4.695596404932671</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.672355496533306</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.1077406628409</v>
+        <v>-21.16155002752039</v>
       </c>
       <c r="F43" t="n">
-        <v>3.263463246306598</v>
+        <v>3.308710244927603</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.714881367018534</v>
+        <v>-4.737360850997778</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.591857917269383</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.82274741458221</v>
+        <v>-20.87353245730527</v>
       </c>
       <c r="F44" t="n">
-        <v>3.175482971210199</v>
+        <v>3.217064125035521</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.77014397731346</v>
+        <v>-4.789900262301624</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.52318670633198</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.34219443877666</v>
+        <v>-20.38892086761878</v>
       </c>
       <c r="F45" t="n">
-        <v>3.296429664862064</v>
+        <v>3.342200355596739</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.722357071941159</v>
+        <v>-4.739102127275728</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.46741162485548</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.01143049978329</v>
+        <v>-20.06023860477724</v>
       </c>
       <c r="F46" t="n">
-        <v>3.326149192312783</v>
+        <v>3.370820129608752</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.713035352317851</v>
+        <v>-4.718966165505153</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.427552604955685</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.47543162144302</v>
+        <v>-19.51901589760313</v>
       </c>
       <c r="F47" t="n">
-        <v>3.336858696037314</v>
+        <v>3.379434864878608</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.988196281142407</v>
+        <v>-4.990618357168127</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.399815992885315</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.00270784273682</v>
+        <v>-19.04469485795023</v>
       </c>
       <c r="F48" t="n">
-        <v>3.270768751292281</v>
+        <v>3.310281321268611</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.104848699462186</v>
+        <v>-5.106341221986144</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.385451047766928</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.60589323590694</v>
+        <v>-18.65492391004921</v>
       </c>
       <c r="F49" t="n">
-        <v>3.290983266879906</v>
+        <v>3.329684114080048</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.388951671127643</v>
+        <v>-5.393468515608038</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.376702447913329</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.09458644072617</v>
+        <v>-18.14131286956829</v>
       </c>
       <c r="F50" t="n">
-        <v>3.421696818451699</v>
+        <v>3.467938832088676</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.32559801767653</v>
+        <v>-5.31528128303725</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.370450873261291</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.42677425737541</v>
+        <v>-17.47563473158073</v>
       </c>
       <c r="F51" t="n">
-        <v>3.434134506151339</v>
+        <v>3.483728149315797</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.538937092482456</v>
+        <v>-5.528279957969291</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.361522888237971</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.03647961736072</v>
+        <v>-17.08396539976765</v>
       </c>
       <c r="F52" t="n">
-        <v>3.269145305739907</v>
+        <v>3.314313750543862</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.813155375502409</v>
+        <v>-5.815001390203093</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.349421399289535</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.64251913255033</v>
+        <v>-16.69284594467393</v>
       </c>
       <c r="F53" t="n">
-        <v>3.307741414517316</v>
+        <v>3.350029552696091</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846671670777227</v>
+        <v>-5.84608251714935</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.333983495567187</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.43648556273009</v>
+        <v>-16.49348944930297</v>
       </c>
       <c r="F54" t="n">
-        <v>3.045319296357758</v>
+        <v>3.085722142927325</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.030278125829594</v>
+        <v>-6.024805543241753</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.314468541764647</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.14074353383834</v>
+        <v>-16.20175366508078</v>
       </c>
       <c r="F55" t="n">
-        <v>2.896328890018915</v>
+        <v>2.937936228449921</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.181153823777645</v>
+        <v>-6.169619504974085</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.293214891756437</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.80250388992235</v>
+        <v>-15.87008635719134</v>
       </c>
       <c r="F56" t="n">
-        <v>2.842493340733738</v>
+        <v>2.884205417587477</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.478231267559251</v>
+        <v>-6.476319791344359</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.270084509366085</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.2565941383309</v>
+        <v>-15.32362672888053</v>
       </c>
       <c r="F57" t="n">
-        <v>2.869725330644528</v>
+        <v>2.918297774187332</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.736817340986183</v>
+        <v>-6.734107234297945</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.250207581089429</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.04905495368386</v>
+        <v>-15.12015925041727</v>
       </c>
       <c r="F58" t="n">
-        <v>2.709213697804967</v>
+        <v>2.759488140717195</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.71047562766863</v>
+        <v>-6.709388966532766</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.23017674387071</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.70096989803088</v>
+        <v>-14.77475811684685</v>
       </c>
       <c r="F59" t="n">
-        <v>2.826520731266832</v>
+        <v>2.883210402571506</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.823606216523985</v>
+        <v>-6.820215310087978</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.211250175859774</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.63884692104689</v>
+        <v>-14.71750547651998</v>
       </c>
       <c r="F60" t="n">
-        <v>2.645480367571444</v>
+        <v>2.702143854270435</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823396739678517</v>
+        <v>-6.823593124221143</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.189582664569397</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.29647010943292</v>
+        <v>-14.37376706541047</v>
       </c>
       <c r="F61" t="n">
-        <v>2.53060850243814</v>
+        <v>2.587926604279216</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.221926438180659</v>
+        <v>-7.228734435658357</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.165042196630885</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.07913788226026</v>
+        <v>-14.16453897369684</v>
       </c>
       <c r="F62" t="n">
-        <v>2.480674459399796</v>
+        <v>2.540794314049002</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.178656377288754</v>
+        <v>-7.177281685490373</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.132374387325878</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.75924055462553</v>
+        <v>-13.84534863041556</v>
       </c>
       <c r="F63" t="n">
-        <v>2.408692978375987</v>
+        <v>2.468472433151308</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.370641906159825</v>
+        <v>-7.376179950261876</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.087684461527426</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.56550065717366</v>
+        <v>-13.65643979271229</v>
       </c>
       <c r="F64" t="n">
-        <v>2.317151596906638</v>
+        <v>2.379261481587786</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.406266062192162</v>
+        <v>-7.397454942379681</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.026792191751947</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.37333183606281</v>
+        <v>-13.46618244781633</v>
       </c>
       <c r="F65" t="n">
-        <v>2.093404141341539</v>
+        <v>2.141295785136573</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.74052564604427</v>
+        <v>-7.7415075687574</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.946895370495015</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.15550210138217</v>
+        <v>-13.25010708171648</v>
       </c>
       <c r="F66" t="n">
-        <v>2.026607212243053</v>
+        <v>2.074734517489238</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.793209072679376</v>
+        <v>-7.787579382457434</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.848116806388915</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.98452971857207</v>
+        <v>-13.08007734471099</v>
       </c>
       <c r="F67" t="n">
-        <v>2.276460719674553</v>
+        <v>2.343859894703759</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.858552756162431</v>
+        <v>-7.862650646951891</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.727774660540926</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.93014429256754</v>
+        <v>-13.0291875635652</v>
       </c>
       <c r="F68" t="n">
-        <v>2.00306725173363</v>
+        <v>2.057400308526792</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.771279465419485</v>
+        <v>-7.765689052106068</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.58728362801667</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.78889143720816</v>
+        <v>-12.88865478486211</v>
       </c>
       <c r="F69" t="n">
-        <v>2.04281548316111</v>
+        <v>2.111759549925639</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.843627530922863</v>
+        <v>-7.838010933003763</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.425672721482319</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.75748300269086</v>
+        <v>-12.86391033249125</v>
       </c>
       <c r="F70" t="n">
-        <v>2.046847912436361</v>
+        <v>2.111654811502905</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.756249501757183</v>
+        <v>-7.747844243332795</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.249545105426979</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.45586252982317</v>
+        <v>-12.55899059930745</v>
       </c>
       <c r="F71" t="n">
-        <v>2.000422606559601</v>
+        <v>2.066669658938735</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.481415880503669</v>
+        <v>-7.460415826745541</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.059803481482958</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.38927507757015</v>
+        <v>-12.49140813203846</v>
       </c>
       <c r="F72" t="n">
-        <v>2.013986232303629</v>
+        <v>2.076567439887079</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.539375505183991</v>
+        <v>-7.523690926379603</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.861334339154348</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.10589218256099</v>
+        <v>-12.18329387696128</v>
       </c>
       <c r="F73" t="n">
-        <v>1.989765472046436</v>
+        <v>2.052582341081037</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.290006412957634</v>
+        <v>-7.261504469671197</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.657170079905683</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.30704232342127</v>
+        <v>-12.38498080223807</v>
       </c>
       <c r="F74" t="n">
-        <v>2.016211923786722</v>
+        <v>2.077038762789382</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.232177711305731</v>
+        <v>-7.209095981395768</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.454343944814704</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.4393662282426</v>
+        <v>-12.51767129153896</v>
       </c>
       <c r="F75" t="n">
-        <v>1.948184318221114</v>
+        <v>2.009037341829456</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.153650078861057</v>
+        <v>-7.13554342403095</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.258957639832014</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.70678960608769</v>
+        <v>-12.77835213342057</v>
       </c>
       <c r="F76" t="n">
-        <v>1.933625677461114</v>
+        <v>1.990577194822623</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.823763324158086</v>
+        <v>-6.792747658726037</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.075729091790354</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.28651677591932</v>
+        <v>-13.3549109659645</v>
       </c>
       <c r="F77" t="n">
-        <v>1.924408696260539</v>
+        <v>1.982983659174422</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.754072996131578</v>
+        <v>-6.732824188619457</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.910533353482175</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.78288525355769</v>
+        <v>-13.84807182940664</v>
       </c>
       <c r="F78" t="n">
-        <v>1.97243126308399</v>
+        <v>2.032917702212765</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.752685212030355</v>
+        <v>-6.744476338148592</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.767751001011981</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.27219697996436</v>
+        <v>-14.33679440218543</v>
       </c>
       <c r="F79" t="n">
-        <v>2.019066045806219</v>
+        <v>2.078295623862187</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.647344543365827</v>
+        <v>-6.64585202084187</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.655867371680005</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.82169402253444</v>
+        <v>-14.88545353737365</v>
       </c>
       <c r="F80" t="n">
-        <v>1.91932888275795</v>
+        <v>1.970231756206581</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.305137931688791</v>
+        <v>-6.296392273390518</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.576657017530308</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.59513490521225</v>
+        <v>-15.65784703582412</v>
       </c>
       <c r="F81" t="n">
-        <v>2.013960047697946</v>
+        <v>2.067952704617224</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.240540509467714</v>
+        <v>-6.236691372432247</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.536973686286536</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.32702081867042</v>
+        <v>-16.38758581161624</v>
       </c>
       <c r="F82" t="n">
-        <v>1.992331563403414</v>
+        <v>2.041034929974635</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.141628161498474</v>
+        <v>-6.136456701875993</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.541254810872832</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.20272567884495</v>
+        <v>-17.26397147153855</v>
       </c>
       <c r="F83" t="n">
-        <v>1.970598340686149</v>
+        <v>2.021422660317729</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.850311330967227</v>
+        <v>-5.842115549388307</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.598469503827231</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.25838424157901</v>
+        <v>-18.31816369635433</v>
       </c>
       <c r="F84" t="n">
-        <v>1.990917594696508</v>
+        <v>2.035614716598161</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.730477483056909</v>
+        <v>-5.728854037504535</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.710919238910765</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.05903092956192</v>
+        <v>-19.11772372320138</v>
       </c>
       <c r="F85" t="n">
-        <v>2.01346254018996</v>
+        <v>2.061118522533843</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.585244567633642</v>
+        <v>-5.589604304479936</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.884037300585073</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.20067973736044</v>
+        <v>-20.2645832675309</v>
       </c>
       <c r="F86" t="n">
-        <v>2.002046052111975</v>
+        <v>2.049047419313772</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.251574137409411</v>
+        <v>-5.252425137094123</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.122237559536567</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.2659087734718</v>
+        <v>-21.33037527266445</v>
       </c>
       <c r="F87" t="n">
-        <v>1.847216478705722</v>
+        <v>1.877093113790541</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.900438575194317</v>
+        <v>-4.893669854625145</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.428729349669435</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.6101216908375</v>
+        <v>-22.6728469137522</v>
       </c>
       <c r="F88" t="n">
-        <v>1.936794014748812</v>
+        <v>1.970284125417947</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661661155966918</v>
+        <v>-4.66183135590386</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.802936279308972</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.0002100373606</v>
+        <v>-24.05556429377542</v>
       </c>
       <c r="F89" t="n">
-        <v>1.79531859024112</v>
+        <v>1.835066821668601</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.281853450528445</v>
+        <v>-4.278148328824236</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.237982226858435</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.4714051999882</v>
+        <v>-25.52508364163928</v>
       </c>
       <c r="F90" t="n">
-        <v>1.588067436256597</v>
+        <v>1.622185977462135</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.159689172712299</v>
+        <v>-4.162831325394313</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.731226419293486</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.11590317533173</v>
+        <v>-27.16866515578388</v>
       </c>
       <c r="F91" t="n">
-        <v>1.387414802904303</v>
+        <v>1.418129345370992</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.065018730863777</v>
+        <v>-4.062806131683526</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.273486857250434</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.72104568833303</v>
+        <v>-28.76459068758461</v>
       </c>
       <c r="F92" t="n">
-        <v>1.268693800735531</v>
+        <v>1.296122175188947</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.797739368349939</v>
+        <v>-3.793471277623537</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.856541554925497</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.57469320157313</v>
+        <v>-30.61442834069777</v>
       </c>
       <c r="F93" t="n">
-        <v>1.13155192846845</v>
+        <v>1.157631795729169</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.793890231314472</v>
+        <v>-3.785236219136091</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.458833318460538</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.6589485370674</v>
+        <v>-32.69319800130135</v>
       </c>
       <c r="F94" t="n">
-        <v>1.020214985102412</v>
+        <v>1.044357191542555</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.792489354910408</v>
+        <v>-3.780104036422135</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.069443195752021</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.69608467463429</v>
+        <v>-34.72507103312587</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6152831505106662</v>
+        <v>0.6400276028815285</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.779737451942566</v>
+        <v>-3.765754872507603</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.673717091788754</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.67154297351381</v>
+        <v>-36.69640525661025</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3857750816952082</v>
+        <v>0.4153898707231926</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.989122651290291</v>
+        <v>-3.978295316840184</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.255021024596068</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.76475344415181</v>
+        <v>-38.78568803639573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.009502298024001045</v>
+        <v>0.03441695033180575</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.99510583368896</v>
+        <v>-3.976554040562234</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.800489529996424</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.99988447759413</v>
+        <v>-41.01027976605046</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.2055518684541913</v>
+        <v>-0.1760418178489408</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.195928666978197</v>
+        <v>-4.176826997132117</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.28938488276798</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.38346913295878</v>
+        <v>-43.38997600747112</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1259113902679717</v>
+        <v>-0.09675483183944772</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.523903945466276</v>
+        <v>-4.505613998396385</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.72691917452544</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.7966031158372</v>
+        <v>-45.79631508517468</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3820099261549753</v>
+        <v>-0.3635366868452998</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.713415029100261</v>
+        <v>-4.689861976287996</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.08826688605472</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19570215006929</v>
+        <v>-48.19503444262437</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3272579156708769</v>
+        <v>-0.3009947561703744</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.998801046444206</v>
+        <v>-4.968322165428668</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.40533693570319</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41950834155352</v>
+        <v>-50.41230757499057</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4716136468037485</v>
+        <v>-0.4473012404266632</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.35313113055268</v>
+        <v>-5.326043155973148</v>
       </c>
     </row>
   </sheetData>
